--- a/Test_cases/Test_case_1.xlsx
+++ b/Test_cases/Test_case_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils de Krom\Documents\GitHub\Operations_optimization_assignment\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BA579-60B0-4B1B-8FD4-5F8E1D53F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DA34AA-B215-4880-8A6D-714A828221B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Table" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Cost per passenger</t>
   </si>
@@ -144,21 +144,6 @@
     <t>Bombardier Dash 8 Q400</t>
   </si>
   <si>
-    <t>Airbus A320-200</t>
-  </si>
-  <si>
-    <t>Airbus A320neo</t>
-  </si>
-  <si>
-    <t>Airbus 321neo</t>
-  </si>
-  <si>
-    <t>Boeing 737-800</t>
-  </si>
-  <si>
-    <t>Airbus 321neo LR</t>
-  </si>
-  <si>
     <t>Take-Off Distance (@MTOW)</t>
   </si>
   <si>
@@ -186,15 +171,6 @@
     <t>Cost all passengers [euro]</t>
   </si>
   <si>
-    <t>https://aircraft.airbus.com/en/aircraft/a320/a320neo</t>
-  </si>
-  <si>
-    <t>https://aircraft.airbus.com/en/aircraft/a320/a321neo</t>
-  </si>
-  <si>
-    <t>https://www.airline-experience.com/guadeloupe/en/boeing-737-800/</t>
-  </si>
-  <si>
     <t>landing weight [ton]</t>
   </si>
   <si>
@@ -256,12 +232,24 @@
   </si>
   <si>
     <t>h per dag vliegen</t>
+  </si>
+  <si>
+    <t>IslandA</t>
+  </si>
+  <si>
+    <t>IslandB</t>
+  </si>
+  <si>
+    <t>IslandC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -676,7 +664,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -746,21 +733,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,130 +985,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="74" t="s">
+        <v>67</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18">
-        <v>2</v>
-      </c>
-      <c r="F2" s="18">
-        <v>3</v>
-      </c>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="79"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="69">
         <v>30</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="70">
         <v>70</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="71">
         <v>40</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="14">
         <f>SUM(D3:L3)</f>
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="62">
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="61">
         <f>SUM(E6:L6) * 2</f>
         <v>0</v>
       </c>
-      <c r="O6" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="O6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -1128,20 +1116,20 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="62">
+      <c r="N7" s="61">
         <f>N6/4</f>
         <v>0</v>
       </c>
-      <c r="O7" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="O7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
@@ -1152,23 +1140,23 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
-      <c r="N8" s="62">
+      <c r="N8" s="61">
         <f>N7/6</f>
         <v>0</v>
       </c>
-      <c r="O8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1180,20 +1168,20 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="62">
+      <c r="N9" s="61">
         <f>97*N8/60</f>
         <v>0</v>
       </c>
-      <c r="O9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>43</v>
+      <c r="A10" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
@@ -1213,13 +1201,13 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
       <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
@@ -1238,13 +1226,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1263,13 +1251,13 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
@@ -1288,13 +1276,13 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1304,13 +1292,13 @@
       <c r="D14" s="21">
         <v>20</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1320,13 +1308,13 @@
       <c r="D15" s="21">
         <v>20</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="38"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="37"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1336,13 +1324,13 @@
       <c r="D16" s="21">
         <v>20</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
@@ -1352,12 +1340,12 @@
       <c r="D17" s="21">
         <v>20</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
@@ -1367,44 +1355,44 @@
       <c r="D18" s="21">
         <v>20</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="14">
         <f>SUM(D10:D18)</f>
         <v>9467.8750664956679</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="38"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="43"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2447,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2460,168 +2448,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9">
-        <v>3</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="C1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="75">
         <v>0</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="76">
         <f>SQRT((100-40)^2 + (30-29)^2)</f>
         <v>60.00833275470999</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="77">
         <f>SQRT((100-70)^2 + (36-29)^2)</f>
         <v>30.805843601498726</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="73">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="78">
         <f>SQRT((100-40)^2 + (30-29)^2)</f>
         <v>60.00833275470999</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="79">
         <v>0</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="80">
         <f>SQRT((40-70)^2 + (36-30)^2)</f>
         <v>30.594117081556711</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="75">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="81">
         <f>SQRT((100-70)^2 + (36-29)^2)</f>
         <v>30.805843601498726</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="82">
         <f>SQRT((100-70)^2 + (36-29)^2)</f>
         <v>30.805843601498726</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="83">
         <v>0</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="65"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="65"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="65"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="65"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="65"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="65"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,7 +3666,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3686,32 +3674,32 @@
     <col min="1" max="1" width="20.69921875" customWidth="1"/>
     <col min="5" max="5" width="24.19921875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="35"/>
+    <col min="8" max="8" width="12.59765625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -3719,460 +3707,341 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>37</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="50">
         <v>15649</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="51">
         <f t="shared" ref="D2:D12" si="0">C2/1000</f>
         <v>15.648999999999999</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <f>D2*$B$16</f>
         <v>51.954679999999996</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="51">
         <f t="shared" ref="F2:F12" si="1">D2*$B$21</f>
         <v>24.72542</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <f>B2*$B$31</f>
         <v>336.99600000000004</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="51">
         <f>$B$31</f>
         <v>9.1080000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:9" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>37</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <v>15649</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <f t="shared" ref="D3" si="2">C3/1000</f>
         <v>15.648999999999999</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <f>D3*$B$16</f>
         <v>51.954679999999996</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <f t="shared" ref="F3" si="3">D3*$B$21</f>
         <v>24.72542</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="51">
         <f>B3*$B$31</f>
         <v>336.99600000000004</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <f>$B$31</f>
         <v>9.1080000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>80</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="52">
         <v>27442</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <f t="shared" si="0"/>
         <v>27.442</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <f>25*$B$16+(D4-25)*$B$17</f>
         <v>92.890100000000004</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <f>D4*$B$21</f>
         <v>43.358360000000005</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <f t="shared" ref="G4:G12" si="4">B4*$B$31</f>
         <v>728.6400000000001</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <f t="shared" ref="H4:H12" si="5">$B$31</f>
         <v>9.1080000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:9" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>80</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="52">
         <v>27442</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <f t="shared" ref="D5:D7" si="6">C5/1000</f>
         <v>27.442</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <f t="shared" ref="E5:E7" si="7">25*$B$16+(D5-25)*$B$17</f>
         <v>92.890100000000004</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <f t="shared" ref="F5:F7" si="8">D5*$B$21</f>
         <v>43.358360000000005</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <f t="shared" ref="G5:G7" si="9">B5*$B$31</f>
         <v>728.6400000000001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <f t="shared" si="5"/>
         <v>9.1080000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:9" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>80</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="52">
         <v>27442</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <f t="shared" si="6"/>
         <v>27.442</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <f t="shared" si="7"/>
         <v>92.890100000000004</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <f t="shared" si="8"/>
         <v>43.358360000000005</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <f t="shared" si="9"/>
         <v>728.6400000000001</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <f t="shared" si="5"/>
         <v>9.1080000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:9" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>80</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>27442</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <f t="shared" si="6"/>
         <v>27.442</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <f t="shared" si="7"/>
         <v>92.890100000000004</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f t="shared" si="8"/>
         <v>43.358360000000005</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <f t="shared" si="9"/>
         <v>728.6400000000001</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <f t="shared" si="5"/>
         <v>9.1080000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="46">
-        <v>165</v>
-      </c>
-      <c r="C8" s="54">
-        <v>64500</v>
-      </c>
-      <c r="D8" s="52">
-        <f t="shared" si="0"/>
-        <v>64.5</v>
-      </c>
-      <c r="E8" s="52">
-        <f>B16*25 + (D8-25)*B17</f>
-        <v>242.97499999999999</v>
-      </c>
-      <c r="F8" s="52">
-        <f t="shared" si="1"/>
-        <v>101.91000000000001</v>
-      </c>
-      <c r="G8" s="52">
-        <f t="shared" si="4"/>
-        <v>1502.8200000000002</v>
-      </c>
-      <c r="H8" s="52">
-        <f t="shared" si="5"/>
-        <v>9.1080000000000005</v>
-      </c>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="46">
-        <v>180</v>
-      </c>
-      <c r="C9" s="54">
-        <v>67400</v>
-      </c>
-      <c r="D9" s="52">
-        <f t="shared" si="0"/>
-        <v>67.400000000000006</v>
-      </c>
-      <c r="E9" s="52">
-        <f>B16*25 + (D9-25)*B17</f>
-        <v>254.72000000000003</v>
-      </c>
-      <c r="F9" s="52">
-        <f t="shared" si="1"/>
-        <v>106.49200000000002</v>
-      </c>
-      <c r="G9" s="52">
-        <f t="shared" si="4"/>
-        <v>1639.44</v>
-      </c>
-      <c r="H9" s="52">
-        <f t="shared" si="5"/>
-        <v>9.1080000000000005</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="28">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="28">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="30">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="46">
-        <v>186</v>
-      </c>
-      <c r="C10" s="54">
-        <v>79200</v>
-      </c>
-      <c r="D10" s="52">
-        <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="E10" s="52">
-        <f>25*B16+50*B17+(D10-75)*B18</f>
-        <v>305.53399999999999</v>
-      </c>
-      <c r="F10" s="52">
-        <f t="shared" si="1"/>
-        <v>125.13600000000001</v>
-      </c>
-      <c r="G10" s="52">
-        <f t="shared" si="4"/>
-        <v>1694.0880000000002</v>
-      </c>
-      <c r="H10" s="52">
-        <f t="shared" si="5"/>
-        <v>9.1080000000000005</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="46">
-        <v>186</v>
-      </c>
-      <c r="C11" s="54">
-        <v>65320</v>
-      </c>
-      <c r="D11" s="52">
-        <f t="shared" si="0"/>
-        <v>65.319999999999993</v>
-      </c>
-      <c r="E11" s="52">
-        <f>25*B16+(D11-25)*B17</f>
-        <v>246.29599999999996</v>
-      </c>
-      <c r="F11" s="52">
-        <f t="shared" si="1"/>
-        <v>103.20559999999999</v>
-      </c>
-      <c r="G11" s="52">
-        <f t="shared" si="4"/>
-        <v>1694.0880000000002</v>
-      </c>
-      <c r="H11" s="52">
-        <f t="shared" si="5"/>
-        <v>9.1080000000000005</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="53">
-        <v>190</v>
-      </c>
-      <c r="C12" s="54">
-        <v>79200</v>
-      </c>
-      <c r="D12" s="52">
-        <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="E12" s="45">
-        <f>E10</f>
-        <v>305.53399999999999</v>
-      </c>
-      <c r="F12" s="52">
-        <f t="shared" si="1"/>
-        <v>125.13600000000001</v>
-      </c>
-      <c r="G12" s="52">
-        <f t="shared" si="4"/>
-        <v>1730.5200000000002</v>
-      </c>
-      <c r="H12" s="52">
-        <f t="shared" si="5"/>
-        <v>9.1080000000000005</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="29">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="29">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="31">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>1.58</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>58</v>
+      <c r="A23" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>47.39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>60</v>
+      <c r="B27" s="31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>61</v>
+      <c r="A28" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>6.98</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>62</v>
+      <c r="A29" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>0.188</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>63</v>
+      <c r="A30" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="1">
         <v>1.94</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="34">
+      <c r="A31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="33">
         <f>SUM(B28:B30)</f>
         <v>9.1080000000000005</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="I10" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4222,290 +4091,290 @@
         <v>31</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>37</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <v>535</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <f t="shared" ref="D2:D4" si="0">C2/3.6</f>
         <v>148.61111111111111</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <v>1839</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>3160</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="46">
         <f t="shared" ref="G2:G4" si="1">F2/E2/B2</f>
         <v>4.6441220992607612E-2</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="44">
         <f>F2/E2</f>
         <v>1.7183251767264818</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <f>F2/E2*D12</f>
         <v>0.89064230560086999</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="48">
         <v>1000</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="48">
         <v>780</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="48">
         <v>20</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="56">
         <f>G2*D12</f>
         <v>2.4071413664888377E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:13" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>37</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>535</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <f t="shared" ref="D3" si="2">C3/3.6</f>
         <v>148.61111111111111</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>1839</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>3160</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f t="shared" ref="G3" si="3">F3/E3/B3</f>
         <v>4.6441220992607612E-2</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <f>F3/E3</f>
         <v>1.7183251767264818</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <f>F3/E3*D12</f>
         <v>0.89064230560086999</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="48">
         <v>1000</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="48">
         <v>780</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="48">
         <v>20</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="56">
         <f>G3*D12</f>
         <v>2.4071413664888377E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>80</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>667</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <f t="shared" si="0"/>
         <v>185.27777777777777</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>2656</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>6526</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f t="shared" si="1"/>
         <v>3.0713478915662652E-2</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <f t="shared" ref="H4" si="4">F4/E4</f>
         <v>2.4570783132530121</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <f>F4/E4*$D$12</f>
         <v>1.2735528313253013</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>1425</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <v>1289</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>20</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="56">
         <f>G4*$D$12</f>
         <v>1.5919410391566267E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>80</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>667</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <f t="shared" ref="D5:D7" si="5">C5/3.6</f>
         <v>185.27777777777777</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>2656</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>6526</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <f t="shared" ref="G5:G7" si="6">F5/E5/B5</f>
         <v>3.0713478915662652E-2</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <f t="shared" ref="H5:H7" si="7">F5/E5</f>
         <v>2.4570783132530121</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="44">
         <f t="shared" ref="I5:I7" si="8">F5/E5*$D$12</f>
         <v>1.2735528313253013</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>1425</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <v>1289</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>20</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="56">
         <f t="shared" ref="M5:M7" si="9">G5*$D$12</f>
         <v>1.5919410391566267E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>80</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>667</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <f t="shared" si="5"/>
         <v>185.27777777777777</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>2656</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>6526</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <f t="shared" si="6"/>
         <v>3.0713478915662652E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <f t="shared" si="7"/>
         <v>2.4570783132530121</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f t="shared" si="8"/>
         <v>1.2735528313253013</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <v>1425</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>1289</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>20</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="56">
         <f t="shared" si="9"/>
         <v>1.5919410391566267E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>80</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>667</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <f t="shared" si="5"/>
         <v>185.27777777777777</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>2656</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>6526</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="46">
         <f t="shared" si="6"/>
         <v>3.0713478915662652E-2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <f t="shared" si="7"/>
         <v>2.4570783132530121</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <f t="shared" si="8"/>
         <v>1.2735528313253013</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="48">
         <v>1425</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <v>1289</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>20</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="56">
         <f t="shared" si="9"/>
         <v>1.5919410391566267E-2</v>
       </c>
